--- a/Photos/Review/KC photos - wine institute.xlsx
+++ b/Photos/Review/KC photos - wine institute.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecphillips\Documents\GitHub\WineInstitute\photos\Review\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18045" windowHeight="8985"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="KC" sheetId="1" r:id="rId4"/>
+    <sheet name="KC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhBVgAunDVuT10gKG1fS8JVDERDbQ=="/>
@@ -16,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="135">
   <si>
     <t>ID</t>
   </si>
@@ -87,9 +95,6 @@
     <t>KC-001</t>
   </si>
   <si>
-    <t>Max Yarno</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -138,18 +143,12 @@
     <t>Wines being picked in a California vineyard</t>
   </si>
   <si>
-    <t>Wines being picked in a California vineyard.</t>
-  </si>
-  <si>
     <t>KC-016</t>
   </si>
   <si>
     <t>Close-up of bunches of grapes being removed from vine</t>
   </si>
   <si>
-    <t>A close-up showing how bunches of grapes are removed from the vine.</t>
-  </si>
-  <si>
     <t>KC-021</t>
   </si>
   <si>
@@ -168,9 +167,6 @@
     <t>Grape clusters being dropped into lug boxes</t>
   </si>
   <si>
-    <t>As wine grapes are picked, the clusters are dropped into lug boxes and taken to the winery to be processed.</t>
-  </si>
-  <si>
     <t>KC-025</t>
   </si>
   <si>
@@ -180,18 +176,12 @@
     <t>Vineyard workers cutting bunch of grapes</t>
   </si>
   <si>
-    <t>Vineyard workers cut away a bunch of grapes during a California vintage.</t>
-  </si>
-  <si>
     <t>KC-026</t>
   </si>
   <si>
     <t>Vineyard worker cutting bunch of grapes</t>
   </si>
   <si>
-    <t>Vineyard worker carefully cuts a bunch of California grapes during the harvest.</t>
-  </si>
-  <si>
     <t>KC-029</t>
   </si>
   <si>
@@ -201,27 +191,18 @@
     <t>Hand picked wine grapes</t>
   </si>
   <si>
-    <t>These hand picked wine grapes will be sped to a winery for crushing, a first step in making California wine.</t>
-  </si>
-  <si>
     <t>KC-032</t>
   </si>
   <si>
     <t>Korbel: Northern California vineyard during harvest</t>
   </si>
   <si>
-    <t>A Northern California vineyard showing the annual grape harvest.</t>
-  </si>
-  <si>
     <t>KC-034</t>
   </si>
   <si>
     <t>Harvest workers in vineyards</t>
   </si>
   <si>
-    <t>California brings scores of harvest workmen into the vineyards to pick ripened grapes.</t>
-  </si>
-  <si>
     <t>KC-036</t>
   </si>
   <si>
@@ -255,9 +236,6 @@
     <t>Workers harvesting grapes while foreman oversees</t>
   </si>
   <si>
-    <t>Harvesting wine grapes in a Southern California vineyard is being done by this crew of workers, as the foreman on horseback oversees this step.</t>
-  </si>
-  <si>
     <t>KC-041</t>
   </si>
   <si>
@@ -267,18 +245,12 @@
     <t>Mont LaSalle: Lugs of grapes being carried to gondolas</t>
   </si>
   <si>
-    <t>Lugs of freshly picked grapes are carried to gondolas.</t>
-  </si>
-  <si>
     <t>KC-042</t>
   </si>
   <si>
     <t>Tractor drawn gondolas loaded with grapes</t>
   </si>
   <si>
-    <t>Tractor drawn gondolas is loaded with California grapes.</t>
-  </si>
-  <si>
     <t>KC-043</t>
   </si>
   <si>
@@ -303,18 +275,12 @@
     <t>San Joaquin Valley: Loading grapes onto trucks with mechanized hoists</t>
   </si>
   <si>
-    <t>In the San Joaquin Valley of California, acres of vineyards are cultivated with mechanized hoists to load the grapes onto trucks which convey them to nearby wineries.</t>
-  </si>
-  <si>
     <t>KC-050</t>
   </si>
   <si>
     <t>Vineyard workers transferring lugs of grapes to gondola</t>
   </si>
   <si>
-    <t>Vineyard workers transfer lugs of grapes to a gondola for transportation to the winery.</t>
-  </si>
-  <si>
     <t>KC-053</t>
   </si>
   <si>
@@ -324,9 +290,6 @@
     <t>Garrett: Conveyor loading truck with grapes</t>
   </si>
   <si>
-    <t>A conveyer loads a winery bound truck with freshly picked grapes in this Southern California vineyard.</t>
-  </si>
-  <si>
     <t>KC-056</t>
   </si>
   <si>
@@ -345,9 +308,6 @@
     <t>Grape lugs being rushed to crusher</t>
   </si>
   <si>
-    <t>Grapes in boxes called “grape lugs” are rushed by truck to the crusher at the nearby winery in this Southern California vineyard.</t>
-  </si>
-  <si>
     <t>KC-061</t>
   </si>
   <si>
@@ -366,9 +326,6 @@
     <t>Santa Nella (Korbel?): Grapes being transported by horse-drawn sleds</t>
   </si>
   <si>
-    <t>Freshly picked grapes are transported by horse-drawn sleds to this small Sonoma County winery.  Motor vehicles would find the sharp grade rough going.</t>
-  </si>
-  <si>
     <t>KC-070</t>
   </si>
   <si>
@@ -381,9 +338,6 @@
     <t>Brookside Winery: Truck unloading grapes</t>
   </si>
   <si>
-    <t>A truck unloading grapes just brought from the vineyard.  Conveyers will carry the grapes into the crusher.</t>
-  </si>
-  <si>
     <t>KC-072</t>
   </si>
   <si>
@@ -393,9 +347,6 @@
     <t>Roma Wine Co., Fresno: Grapes being delivered to winery</t>
   </si>
   <si>
-    <t>Freshly picked grapes are delivered to this California winery where they are loaded onto conveyers carrying them to the crusher.</t>
-  </si>
-  <si>
     <t>KC-074</t>
   </si>
   <si>
@@ -405,9 +356,6 @@
     <t>Gallo Winery: Trucks of grapes being unloaded at crusher</t>
   </si>
   <si>
-    <t>Trucks of grapes are being unloaded at the crusher at this winery in Sonoma County, CA.</t>
-  </si>
-  <si>
     <t>KC-075</t>
   </si>
   <si>
@@ -418,35 +366,98 @@
   </si>
   <si>
     <t>Beaulieu Vineyards: Truck unloading grapes</t>
+  </si>
+  <si>
+    <t>Wine on the vine being picked in a California vineyard. After being picked and crushed the grapes will undergo Nature's transformation into one of the may delicious wines for which California is famous.</t>
+  </si>
+  <si>
+    <t>Grape-picking -- A close-up showing how bunches of grapes are removed from the vine.</t>
+  </si>
+  <si>
+    <t>As wine grapes are picked, the clusters are dropped into lug boxes which, when full, are then taken to the winery for the long process of converting fresh grape juice into mellow wine.</t>
+  </si>
+  <si>
+    <t>Max Yavno</t>
+  </si>
+  <si>
+    <t>A vineyard worker cuts away a lush bunch of grapes during a California vintage.</t>
+  </si>
+  <si>
+    <t>A vineyard worker carefully cuts a rich bunch of California grapes during the harvest.</t>
+  </si>
+  <si>
+    <t>These hand picked lush wine grapes will be sped to a nearby winery for crushing, a first step in making fine California wine.</t>
+  </si>
+  <si>
+    <t>Scene in a Northern California vineyard showing the annual grape harvest, as pickers bend low over the lush foliage to gather the clusters from these vines of aristocratic lineage. While still vine-fresh, the grapes are launched on the long and careful process of conversion into the wine which has made California vineyards synonymous with wines of distinction.</t>
+  </si>
+  <si>
+    <t>Vintage time in California brings scores of harvest workmen into the vineyards to pick the fully ripened grapes. After picking the clusters are dropped into the boxes, shown in the photograph beside each picker, and taken to the winery.</t>
+  </si>
+  <si>
+    <t>Harvesting wine grapes in a Southern California vineyard is being done by this crew of harvest workers, as the foreman on horseback oversees this important step in making the fine wines for which California is famous.</t>
+  </si>
+  <si>
+    <t>Lugs of freshly picked grapes are carried to gondolas to begin the trip to the winery.</t>
+  </si>
+  <si>
+    <t>A tractor-drawn gondola is loaded with California grapes.</t>
+  </si>
+  <si>
+    <t>In the great San Joaquin Valley of California where thousands of acres of vineyards are cultivated, mechanized hoists are used to load the grapes onto trucks which convey them to nearby wineries. This speeds up the process whereby fresh grapes are brought to the winery for crushing as soon as possible after they have been picked.</t>
+  </si>
+  <si>
+    <t>California vineyard workers transfer lugs of grapes to a gondola for transportation to the winery.</t>
+  </si>
+  <si>
+    <t>A conveyer, set up in this Southern California vineyard, loads a winery bound truck with freshly picked grapes, thus eliminating any delay in transporting the grapes to the crusher and sending them on their way to become wine.</t>
+  </si>
+  <si>
+    <t>Autumn view on Vine Street. Full-laden grapevines of a Southern California vineyard yielding up their luscious clusters of wine grapes in the autumn vintage, or grape harvest. Laid in boxes called grape lugs, the grapes are rushed by truck to the crusher at the nearby winery, and started on the natural process which turns them into delicious California wine.</t>
+  </si>
+  <si>
+    <t>The freshly picked grapes are transported from the steep hillside vineyards by horse-drawn sleds to this small Sonoma County winery at the base of the hill.  Motor vehicles would find the sharp grade rough going.</t>
+  </si>
+  <si>
+    <t>Piles of wine grapes at a Southern California winery, with a truck unloading grapes just brought from the vineyard.  The conveyer belt will carry the grapes into the crusher, after which the juice will ferment into wine and be carefully aged. California wines are famous for their high quality.</t>
+  </si>
+  <si>
+    <t>Quickly after picking, the fresh grapes are delivered to this California winery where they are loaded onto conveyers carrying them to the crusher. Conveyor belts line either side of this unloading concourse where the truck on the left is discharging its load with the aid of an overhead lift.</t>
+  </si>
+  <si>
+    <t>Trucks of grapes are being unloaded at the crusher at this winery in Sonoma County, California.</t>
+  </si>
+  <si>
+    <t>Freshly harvested grapes from a nearby vineyard are being unloaded onto a conveyor which will carry the vine-ripened fruit to a stemmer-crusher. There the grapes lose their stems and are crushed so gently that the juice is freed but the seeds remain unbroken. To assure wines of high quality, it is important that only the fresh grapes be crushed. Therefore, in California, the boxes of grapes are transported to the winery almost as soon as they are picked.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -456,7 +467,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -466,7 +477,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -480,6 +497,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -494,46 +512,46 @@
       <bottom style="thin">
         <color rgb="FFD0D7E5"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -723,40 +741,43 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E27" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" hidden="1" min="1" max="1" width="7.63"/>
-    <col customWidth="1" min="2" max="2" width="17.0"/>
-    <col customWidth="1" min="3" max="3" width="12.13"/>
-    <col customWidth="1" min="4" max="4" width="7.63"/>
-    <col customWidth="1" hidden="1" min="5" max="5" width="17.13"/>
-    <col customWidth="1" hidden="1" min="6" max="7" width="12.0"/>
-    <col customWidth="1" hidden="1" min="8" max="8" width="10.13"/>
-    <col customWidth="1" hidden="1" min="9" max="9" width="8.63"/>
-    <col customWidth="1" hidden="1" min="10" max="10" width="4.25"/>
-    <col customWidth="1" hidden="1" min="11" max="11" width="15.38"/>
-    <col customWidth="1" min="12" max="12" width="9.25"/>
-    <col customWidth="1" min="13" max="13" width="54.25"/>
-    <col customWidth="1" hidden="1" min="14" max="14" width="11.13"/>
-    <col customWidth="1" hidden="1" min="15" max="15" width="7.63"/>
-    <col customWidth="1" min="16" max="16" width="7.63"/>
-    <col customWidth="1" min="17" max="17" width="35.13"/>
-    <col customWidth="1" hidden="1" min="18" max="18" width="14.63"/>
-    <col customWidth="1" min="19" max="26" width="7.63"/>
+    <col min="1" max="1" width="7.625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="12" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10.125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="13" max="13" width="54.25" customWidth="1"/>
+    <col min="14" max="14" width="11.125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="7.625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="7.625" customWidth="1"/>
+    <col min="17" max="17" width="35.125" customWidth="1"/>
+    <col min="18" max="18" width="14.625" hidden="1" customWidth="1"/>
+    <col min="19" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,9 +839,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>2410.0</v>
+        <v>2410</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>20</v>
@@ -838,49 +859,49 @@
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S2" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T2" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2411.0</v>
+        <v>2411</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>20</v>
@@ -889,58 +910,58 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="N3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S3" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T3" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>2412.0</v>
+        <v>2412</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
@@ -949,58 +970,58 @@
         <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1965</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1965.0</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="N4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S4" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T4" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>2413.0</v>
+        <v>2413</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>20</v>
@@ -1009,58 +1030,58 @@
         <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="N5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S5" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T5" s="4">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>2414.0</v>
+        <v>2414</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>20</v>
@@ -1069,16 +1090,16 @@
         <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2" t="b">
         <v>0</v>
@@ -1087,40 +1108,40 @@
         <v>0</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S6" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T6" s="4">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>2415.0</v>
+        <v>2415</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>20</v>
@@ -1129,16 +1150,16 @@
         <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2" t="b">
         <v>0</v>
@@ -1147,40 +1168,40 @@
         <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S7" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T7" s="4">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2416.0</v>
+        <v>2416</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>20</v>
@@ -1189,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="H8" s="2" t="b">
         <v>0</v>
@@ -1207,40 +1228,40 @@
         <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S8" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T8" s="4">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2417.0</v>
+        <v>2417</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1249,16 +1270,16 @@
         <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H9" s="2" t="b">
         <v>0</v>
@@ -1267,40 +1288,40 @@
         <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S9" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T9" s="4">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>2418.0</v>
+        <v>2418</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>20</v>
@@ -1309,16 +1330,16 @@
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H10" s="2" t="b">
         <v>0</v>
@@ -1327,40 +1348,40 @@
         <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S10" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T10" s="4">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>2419.0</v>
+        <v>2419</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>20</v>
@@ -1369,16 +1390,16 @@
         <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F11" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H11" s="2" t="b">
         <v>0</v>
@@ -1387,40 +1408,40 @@
         <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S11" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T11" s="4">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>2420.0</v>
+        <v>2420</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>20</v>
@@ -1429,58 +1450,58 @@
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S12" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T12" s="4">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>2421.0</v>
+        <v>2421</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
@@ -1489,58 +1510,58 @@
         <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S13" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T13" s="4">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>2422.0</v>
+        <v>2422</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>20</v>
@@ -1549,16 +1570,16 @@
         <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" s="2" t="b">
         <v>0</v>
@@ -1567,40 +1588,40 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S14" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T14" s="5">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>2423.0</v>
+        <v>2423</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -1609,16 +1630,16 @@
         <v>21</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H15" s="2" t="b">
         <v>0</v>
@@ -1627,40 +1648,40 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S15" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T15" s="5">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>2424.0</v>
+        <v>2424</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>20</v>
@@ -1669,58 +1690,58 @@
         <v>21</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F16" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S16" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T16" s="5">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>2425.0</v>
+        <v>2425</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>20</v>
@@ -1729,16 +1750,16 @@
         <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F17" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H17" s="2" t="b">
         <v>0</v>
@@ -1747,40 +1768,40 @@
         <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S17" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T17" s="5">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>2426.0</v>
+        <v>2426</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>20</v>
@@ -1789,16 +1810,16 @@
         <v>21</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F18" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H18" s="2" t="b">
         <v>0</v>
@@ -1807,40 +1828,40 @@
         <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S18" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T18" s="5">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>2427.0</v>
+        <v>2427</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>20</v>
@@ -1849,16 +1870,16 @@
         <v>21</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F19" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H19" s="2" t="b">
         <v>0</v>
@@ -1867,40 +1888,40 @@
         <v>0</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S19" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T19" s="5">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>2428.0</v>
+        <v>2428</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>20</v>
@@ -1909,16 +1930,16 @@
         <v>21</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F20" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H20" s="2" t="b">
         <v>0</v>
@@ -1927,40 +1948,40 @@
         <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S20" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T20" s="5">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>2429.0</v>
+        <v>2429</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
@@ -1969,16 +1990,16 @@
         <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F21" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H21" s="2" t="b">
         <v>0</v>
@@ -1987,40 +2008,40 @@
         <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S21" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T21" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>2430.0</v>
+        <v>2430</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>20</v>
@@ -2029,16 +2050,16 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F22" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H22" s="2" t="b">
         <v>0</v>
@@ -2047,40 +2068,40 @@
         <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S22" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T22" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>2431.0</v>
+        <v>2431</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>20</v>
@@ -2089,58 +2110,58 @@
         <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F23" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K23" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S23" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T23" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>2432.0</v>
+        <v>2432</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>20</v>
@@ -2149,16 +2170,16 @@
         <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F24" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H24" s="2" t="b">
         <v>1</v>
@@ -2167,40 +2188,40 @@
         <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S24" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T24" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>2433.0</v>
+        <v>2433</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>20</v>
@@ -2209,16 +2230,16 @@
         <v>21</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F25" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H25" s="2" t="b">
         <v>0</v>
@@ -2227,40 +2248,40 @@
         <v>0</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S25" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T25" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>2434.0</v>
+        <v>2434</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>20</v>
@@ -2269,16 +2290,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F26" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H26" s="2" t="b">
         <v>0</v>
@@ -2287,40 +2308,40 @@
         <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="M26" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S26" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T26" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>2435.0</v>
+        <v>2435</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>20</v>
@@ -2329,58 +2350,58 @@
         <v>21</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F27" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K27" s="3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S27" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T27" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>2436.0</v>
+        <v>2436</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>20</v>
@@ -2389,16 +2410,16 @@
         <v>21</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F28" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H28" s="2" t="b">
         <v>0</v>
@@ -2407,40 +2428,40 @@
         <v>0</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S28" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T28" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>2437.0</v>
+        <v>2437</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>20</v>
@@ -2449,58 +2470,58 @@
         <v>21</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F29" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K29" s="3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S29" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T29" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>2438.0</v>
+        <v>2438</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>20</v>
@@ -2509,16 +2530,16 @@
         <v>21</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F30" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H30" s="2" t="b">
         <v>0</v>
@@ -2527,40 +2548,40 @@
         <v>0</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="R30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S30" s="4">
+        <v>207</v>
+      </c>
+      <c r="T30" s="5">
         <v>29</v>
       </c>
-      <c r="S30" s="4">
-        <v>207.0</v>
-      </c>
-      <c r="T30" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+    </row>
+    <row r="31" spans="1:20" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>2439.0</v>
+        <v>2439</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>20</v>
@@ -2569,16 +2590,16 @@
         <v>21</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F31" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="H31" s="2" t="b">
         <v>0</v>
@@ -2587,3917 +2608,3915 @@
         <v>0</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="3" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S31" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="T31" s="5">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S32" s="6"/>
       <c r="T32" s="7"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S33" s="6"/>
       <c r="T33" s="7"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S34" s="6"/>
       <c r="T34" s="7"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S35" s="6"/>
       <c r="T35" s="7"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S36" s="6"/>
       <c r="T36" s="7"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S37" s="6"/>
       <c r="T37" s="7"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S38" s="6"/>
       <c r="T38" s="7"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S39" s="6"/>
       <c r="T39" s="7"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S40" s="6"/>
       <c r="T40" s="7"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S41" s="6"/>
       <c r="T41" s="7"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S42" s="6"/>
       <c r="T42" s="7"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S43" s="6"/>
       <c r="T43" s="7"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S44" s="6"/>
       <c r="T44" s="7"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S60" s="7"/>
       <c r="T60" s="7"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S62" s="7"/>
       <c r="T62" s="7"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S64" s="7"/>
       <c r="T64" s="7"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S66" s="7"/>
       <c r="T66" s="7"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S67" s="7"/>
       <c r="T67" s="7"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S68" s="7"/>
       <c r="T68" s="7"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S70" s="7"/>
       <c r="T70" s="7"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S72" s="7"/>
       <c r="T72" s="7"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S74" s="7"/>
       <c r="T74" s="7"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S76" s="7"/>
       <c r="T76" s="7"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S80" s="7"/>
       <c r="T80" s="7"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S81" s="7"/>
       <c r="T81" s="7"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S82" s="7"/>
       <c r="T82" s="7"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S83" s="7"/>
       <c r="T83" s="7"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S84" s="7"/>
       <c r="T84" s="7"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S85" s="7"/>
       <c r="T85" s="7"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S86" s="7"/>
       <c r="T86" s="7"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S87" s="7"/>
       <c r="T87" s="7"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S88" s="7"/>
       <c r="T88" s="7"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S89" s="7"/>
       <c r="T89" s="7"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S90" s="7"/>
       <c r="T90" s="7"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S91" s="7"/>
       <c r="T91" s="7"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S92" s="7"/>
       <c r="T92" s="7"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S93" s="7"/>
       <c r="T93" s="7"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S94" s="7"/>
       <c r="T94" s="7"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S95" s="7"/>
       <c r="T95" s="7"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S96" s="7"/>
       <c r="T96" s="7"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S97" s="7"/>
       <c r="T97" s="7"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S98" s="7"/>
       <c r="T98" s="7"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S99" s="7"/>
       <c r="T99" s="7"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S100" s="7"/>
       <c r="T100" s="7"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S101" s="7"/>
       <c r="T101" s="7"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S102" s="7"/>
       <c r="T102" s="7"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S103" s="7"/>
       <c r="T103" s="7"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S104" s="7"/>
       <c r="T104" s="7"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S105" s="7"/>
       <c r="T105" s="7"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S106" s="7"/>
       <c r="T106" s="7"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S107" s="7"/>
       <c r="T107" s="7"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S108" s="7"/>
       <c r="T108" s="7"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S109" s="7"/>
       <c r="T109" s="7"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S110" s="7"/>
       <c r="T110" s="7"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S111" s="7"/>
       <c r="T111" s="7"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S112" s="7"/>
       <c r="T112" s="7"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S113" s="7"/>
       <c r="T113" s="7"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S114" s="7"/>
       <c r="T114" s="7"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S115" s="7"/>
       <c r="T115" s="7"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S116" s="7"/>
       <c r="T116" s="7"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S117" s="7"/>
       <c r="T117" s="7"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S118" s="7"/>
       <c r="T118" s="7"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S119" s="7"/>
       <c r="T119" s="7"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S120" s="7"/>
       <c r="T120" s="7"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S121" s="7"/>
       <c r="T121" s="7"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S122" s="7"/>
       <c r="T122" s="7"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S123" s="7"/>
       <c r="T123" s="7"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S124" s="7"/>
       <c r="T124" s="7"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S125" s="7"/>
       <c r="T125" s="7"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S126" s="7"/>
       <c r="T126" s="7"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S127" s="7"/>
       <c r="T127" s="7"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S128" s="7"/>
       <c r="T128" s="7"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S129" s="7"/>
       <c r="T129" s="7"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S130" s="7"/>
       <c r="T130" s="7"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S131" s="7"/>
       <c r="T131" s="7"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S132" s="7"/>
       <c r="T132" s="7"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S133" s="7"/>
       <c r="T133" s="7"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S134" s="7"/>
       <c r="T134" s="7"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S135" s="7"/>
       <c r="T135" s="7"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S136" s="7"/>
       <c r="T136" s="7"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S137" s="7"/>
       <c r="T137" s="7"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S138" s="7"/>
       <c r="T138" s="7"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S139" s="7"/>
       <c r="T139" s="7"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S140" s="7"/>
       <c r="T140" s="7"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S141" s="7"/>
       <c r="T141" s="7"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S142" s="7"/>
       <c r="T142" s="7"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S143" s="7"/>
       <c r="T143" s="7"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S144" s="7"/>
       <c r="T144" s="7"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S145" s="7"/>
       <c r="T145" s="7"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S146" s="7"/>
       <c r="T146" s="7"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S147" s="7"/>
       <c r="T147" s="7"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S148" s="7"/>
       <c r="T148" s="7"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S149" s="7"/>
       <c r="T149" s="7"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S150" s="7"/>
       <c r="T150" s="7"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S151" s="7"/>
       <c r="T151" s="7"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S152" s="7"/>
       <c r="T152" s="7"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S153" s="7"/>
       <c r="T153" s="7"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S154" s="7"/>
       <c r="T154" s="7"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S155" s="7"/>
       <c r="T155" s="7"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S156" s="7"/>
       <c r="T156" s="7"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S157" s="7"/>
       <c r="T157" s="7"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S158" s="7"/>
       <c r="T158" s="7"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S159" s="7"/>
       <c r="T159" s="7"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S160" s="7"/>
       <c r="T160" s="7"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S161" s="7"/>
       <c r="T161" s="7"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S162" s="7"/>
       <c r="T162" s="7"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S163" s="7"/>
       <c r="T163" s="7"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S164" s="7"/>
       <c r="T164" s="7"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S165" s="7"/>
       <c r="T165" s="7"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S166" s="7"/>
       <c r="T166" s="7"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S167" s="7"/>
       <c r="T167" s="7"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S168" s="7"/>
       <c r="T168" s="7"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S169" s="7"/>
       <c r="T169" s="7"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S170" s="7"/>
       <c r="T170" s="7"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S171" s="7"/>
       <c r="T171" s="7"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S172" s="7"/>
       <c r="T172" s="7"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S173" s="7"/>
       <c r="T173" s="7"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S174" s="7"/>
       <c r="T174" s="7"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S175" s="7"/>
       <c r="T175" s="7"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S176" s="7"/>
       <c r="T176" s="7"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S177" s="7"/>
       <c r="T177" s="7"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S178" s="7"/>
       <c r="T178" s="7"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S179" s="7"/>
       <c r="T179" s="7"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S180" s="7"/>
       <c r="T180" s="7"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S181" s="7"/>
       <c r="T181" s="7"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S182" s="7"/>
       <c r="T182" s="7"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S183" s="7"/>
       <c r="T183" s="7"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S184" s="7"/>
       <c r="T184" s="7"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S185" s="7"/>
       <c r="T185" s="7"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S186" s="7"/>
       <c r="T186" s="7"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S187" s="7"/>
       <c r="T187" s="7"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S188" s="7"/>
       <c r="T188" s="7"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S189" s="7"/>
       <c r="T189" s="7"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S190" s="7"/>
       <c r="T190" s="7"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S191" s="7"/>
       <c r="T191" s="7"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S192" s="7"/>
       <c r="T192" s="7"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S193" s="7"/>
       <c r="T193" s="7"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S194" s="7"/>
       <c r="T194" s="7"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S195" s="7"/>
       <c r="T195" s="7"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S196" s="7"/>
       <c r="T196" s="7"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S197" s="7"/>
       <c r="T197" s="7"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S198" s="7"/>
       <c r="T198" s="7"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S199" s="7"/>
       <c r="T199" s="7"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S200" s="7"/>
       <c r="T200" s="7"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S201" s="7"/>
       <c r="T201" s="7"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S202" s="7"/>
       <c r="T202" s="7"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S203" s="7"/>
       <c r="T203" s="7"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S204" s="7"/>
       <c r="T204" s="7"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S205" s="7"/>
       <c r="T205" s="7"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S206" s="7"/>
       <c r="T206" s="7"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S207" s="7"/>
       <c r="T207" s="7"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S208" s="7"/>
       <c r="T208" s="7"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S209" s="7"/>
       <c r="T209" s="7"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S210" s="7"/>
       <c r="T210" s="7"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S211" s="7"/>
       <c r="T211" s="7"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S212" s="7"/>
       <c r="T212" s="7"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S213" s="7"/>
       <c r="T213" s="7"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S214" s="7"/>
       <c r="T214" s="7"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S215" s="7"/>
       <c r="T215" s="7"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S216" s="7"/>
       <c r="T216" s="7"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S217" s="7"/>
       <c r="T217" s="7"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S218" s="7"/>
       <c r="T218" s="7"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S219" s="7"/>
       <c r="T219" s="7"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S220" s="7"/>
       <c r="T220" s="7"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S221" s="7"/>
       <c r="T221" s="7"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S222" s="7"/>
       <c r="T222" s="7"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S223" s="7"/>
       <c r="T223" s="7"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S224" s="7"/>
       <c r="T224" s="7"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S225" s="7"/>
       <c r="T225" s="7"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S226" s="7"/>
       <c r="T226" s="7"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S227" s="7"/>
       <c r="T227" s="7"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S228" s="7"/>
       <c r="T228" s="7"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S229" s="7"/>
       <c r="T229" s="7"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S230" s="7"/>
       <c r="T230" s="7"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S231" s="7"/>
       <c r="T231" s="7"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S232" s="7"/>
       <c r="T232" s="7"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S233" s="7"/>
       <c r="T233" s="7"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S234" s="7"/>
       <c r="T234" s="7"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S235" s="7"/>
       <c r="T235" s="7"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S236" s="7"/>
       <c r="T236" s="7"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S237" s="7"/>
       <c r="T237" s="7"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S238" s="7"/>
       <c r="T238" s="7"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S239" s="7"/>
       <c r="T239" s="7"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S240" s="7"/>
       <c r="T240" s="7"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S241" s="7"/>
       <c r="T241" s="7"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S242" s="7"/>
       <c r="T242" s="7"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S243" s="7"/>
       <c r="T243" s="7"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S244" s="7"/>
       <c r="T244" s="7"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S245" s="7"/>
       <c r="T245" s="7"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S246" s="7"/>
       <c r="T246" s="7"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S247" s="7"/>
       <c r="T247" s="7"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S248" s="7"/>
       <c r="T248" s="7"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S249" s="7"/>
       <c r="T249" s="7"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S250" s="7"/>
       <c r="T250" s="7"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S251" s="7"/>
       <c r="T251" s="7"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S252" s="7"/>
       <c r="T252" s="7"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S253" s="7"/>
       <c r="T253" s="7"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S254" s="7"/>
       <c r="T254" s="7"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S255" s="7"/>
       <c r="T255" s="7"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S256" s="7"/>
       <c r="T256" s="7"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S257" s="7"/>
       <c r="T257" s="7"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S258" s="7"/>
       <c r="T258" s="7"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S259" s="7"/>
       <c r="T259" s="7"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S260" s="7"/>
       <c r="T260" s="7"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S261" s="7"/>
       <c r="T261" s="7"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S262" s="7"/>
       <c r="T262" s="7"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S263" s="7"/>
       <c r="T263" s="7"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S264" s="7"/>
       <c r="T264" s="7"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S265" s="7"/>
       <c r="T265" s="7"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S266" s="7"/>
       <c r="T266" s="7"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S267" s="7"/>
       <c r="T267" s="7"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S268" s="7"/>
       <c r="T268" s="7"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S269" s="7"/>
       <c r="T269" s="7"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S270" s="7"/>
       <c r="T270" s="7"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S271" s="7"/>
       <c r="T271" s="7"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S272" s="7"/>
       <c r="T272" s="7"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S273" s="7"/>
       <c r="T273" s="7"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S274" s="7"/>
       <c r="T274" s="7"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S275" s="7"/>
       <c r="T275" s="7"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S276" s="7"/>
       <c r="T276" s="7"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S277" s="7"/>
       <c r="T277" s="7"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S278" s="7"/>
       <c r="T278" s="7"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S279" s="7"/>
       <c r="T279" s="7"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S280" s="7"/>
       <c r="T280" s="7"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S281" s="7"/>
       <c r="T281" s="7"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S282" s="7"/>
       <c r="T282" s="7"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S283" s="7"/>
       <c r="T283" s="7"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S284" s="7"/>
       <c r="T284" s="7"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S285" s="7"/>
       <c r="T285" s="7"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S286" s="7"/>
       <c r="T286" s="7"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S287" s="7"/>
       <c r="T287" s="7"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S288" s="7"/>
       <c r="T288" s="7"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S289" s="7"/>
       <c r="T289" s="7"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S290" s="7"/>
       <c r="T290" s="7"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S291" s="7"/>
       <c r="T291" s="7"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S292" s="7"/>
       <c r="T292" s="7"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S293" s="7"/>
       <c r="T293" s="7"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S294" s="7"/>
       <c r="T294" s="7"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S295" s="7"/>
       <c r="T295" s="7"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S296" s="7"/>
       <c r="T296" s="7"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S297" s="7"/>
       <c r="T297" s="7"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S298" s="7"/>
       <c r="T298" s="7"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S299" s="7"/>
       <c r="T299" s="7"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S300" s="7"/>
       <c r="T300" s="7"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S301" s="7"/>
       <c r="T301" s="7"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S302" s="7"/>
       <c r="T302" s="7"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S303" s="7"/>
       <c r="T303" s="7"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S304" s="7"/>
       <c r="T304" s="7"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S305" s="7"/>
       <c r="T305" s="7"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S306" s="7"/>
       <c r="T306" s="7"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S307" s="7"/>
       <c r="T307" s="7"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S308" s="7"/>
       <c r="T308" s="7"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S309" s="7"/>
       <c r="T309" s="7"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S310" s="7"/>
       <c r="T310" s="7"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S311" s="7"/>
       <c r="T311" s="7"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S312" s="7"/>
       <c r="T312" s="7"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S313" s="7"/>
       <c r="T313" s="7"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S314" s="7"/>
       <c r="T314" s="7"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S315" s="7"/>
       <c r="T315" s="7"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S316" s="7"/>
       <c r="T316" s="7"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S317" s="7"/>
       <c r="T317" s="7"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S318" s="7"/>
       <c r="T318" s="7"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S319" s="7"/>
       <c r="T319" s="7"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S320" s="7"/>
       <c r="T320" s="7"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S321" s="7"/>
       <c r="T321" s="7"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S322" s="7"/>
       <c r="T322" s="7"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S323" s="7"/>
       <c r="T323" s="7"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S324" s="7"/>
       <c r="T324" s="7"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S325" s="7"/>
       <c r="T325" s="7"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S326" s="7"/>
       <c r="T326" s="7"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S327" s="7"/>
       <c r="T327" s="7"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S328" s="7"/>
       <c r="T328" s="7"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S329" s="7"/>
       <c r="T329" s="7"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S330" s="7"/>
       <c r="T330" s="7"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S331" s="7"/>
       <c r="T331" s="7"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S332" s="7"/>
       <c r="T332" s="7"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S333" s="7"/>
       <c r="T333" s="7"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S334" s="7"/>
       <c r="T334" s="7"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S335" s="7"/>
       <c r="T335" s="7"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S336" s="7"/>
       <c r="T336" s="7"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S337" s="7"/>
       <c r="T337" s="7"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S338" s="7"/>
       <c r="T338" s="7"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S339" s="7"/>
       <c r="T339" s="7"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S340" s="7"/>
       <c r="T340" s="7"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S341" s="7"/>
       <c r="T341" s="7"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S342" s="7"/>
       <c r="T342" s="7"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S343" s="7"/>
       <c r="T343" s="7"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S344" s="7"/>
       <c r="T344" s="7"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S345" s="7"/>
       <c r="T345" s="7"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S346" s="7"/>
       <c r="T346" s="7"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S347" s="7"/>
       <c r="T347" s="7"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S348" s="7"/>
       <c r="T348" s="7"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S349" s="7"/>
       <c r="T349" s="7"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S350" s="7"/>
       <c r="T350" s="7"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S351" s="7"/>
       <c r="T351" s="7"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S352" s="7"/>
       <c r="T352" s="7"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S353" s="7"/>
       <c r="T353" s="7"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S354" s="7"/>
       <c r="T354" s="7"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S355" s="7"/>
       <c r="T355" s="7"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S356" s="7"/>
       <c r="T356" s="7"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S357" s="7"/>
       <c r="T357" s="7"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S358" s="7"/>
       <c r="T358" s="7"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S359" s="7"/>
       <c r="T359" s="7"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S360" s="7"/>
       <c r="T360" s="7"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S361" s="7"/>
       <c r="T361" s="7"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S362" s="7"/>
       <c r="T362" s="7"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S363" s="7"/>
       <c r="T363" s="7"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S364" s="7"/>
       <c r="T364" s="7"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S365" s="7"/>
       <c r="T365" s="7"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S366" s="7"/>
       <c r="T366" s="7"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S367" s="7"/>
       <c r="T367" s="7"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S368" s="7"/>
       <c r="T368" s="7"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S369" s="7"/>
       <c r="T369" s="7"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S370" s="7"/>
       <c r="T370" s="7"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S371" s="7"/>
       <c r="T371" s="7"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S372" s="7"/>
       <c r="T372" s="7"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S373" s="7"/>
       <c r="T373" s="7"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S374" s="7"/>
       <c r="T374" s="7"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S375" s="7"/>
       <c r="T375" s="7"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S376" s="7"/>
       <c r="T376" s="7"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S377" s="7"/>
       <c r="T377" s="7"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S378" s="7"/>
       <c r="T378" s="7"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S379" s="7"/>
       <c r="T379" s="7"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S380" s="7"/>
       <c r="T380" s="7"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S381" s="7"/>
       <c r="T381" s="7"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S382" s="7"/>
       <c r="T382" s="7"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S383" s="7"/>
       <c r="T383" s="7"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S384" s="7"/>
       <c r="T384" s="7"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S385" s="7"/>
       <c r="T385" s="7"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S386" s="7"/>
       <c r="T386" s="7"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S387" s="7"/>
       <c r="T387" s="7"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S388" s="7"/>
       <c r="T388" s="7"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S389" s="7"/>
       <c r="T389" s="7"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S390" s="7"/>
       <c r="T390" s="7"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S391" s="7"/>
       <c r="T391" s="7"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S392" s="7"/>
       <c r="T392" s="7"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S393" s="7"/>
       <c r="T393" s="7"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S394" s="7"/>
       <c r="T394" s="7"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S395" s="7"/>
       <c r="T395" s="7"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S396" s="7"/>
       <c r="T396" s="7"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S397" s="7"/>
       <c r="T397" s="7"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S398" s="7"/>
       <c r="T398" s="7"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S399" s="7"/>
       <c r="T399" s="7"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S400" s="7"/>
       <c r="T400" s="7"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S401" s="7"/>
       <c r="T401" s="7"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S402" s="7"/>
       <c r="T402" s="7"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S403" s="7"/>
       <c r="T403" s="7"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S404" s="7"/>
       <c r="T404" s="7"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S405" s="7"/>
       <c r="T405" s="7"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S406" s="7"/>
       <c r="T406" s="7"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S407" s="7"/>
       <c r="T407" s="7"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S408" s="7"/>
       <c r="T408" s="7"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S409" s="7"/>
       <c r="T409" s="7"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S410" s="7"/>
       <c r="T410" s="7"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S411" s="7"/>
       <c r="T411" s="7"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S412" s="7"/>
       <c r="T412" s="7"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S413" s="7"/>
       <c r="T413" s="7"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S414" s="7"/>
       <c r="T414" s="7"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S415" s="7"/>
       <c r="T415" s="7"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S416" s="7"/>
       <c r="T416" s="7"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S417" s="7"/>
       <c r="T417" s="7"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S418" s="7"/>
       <c r="T418" s="7"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S419" s="7"/>
       <c r="T419" s="7"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S420" s="7"/>
       <c r="T420" s="7"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S421" s="7"/>
       <c r="T421" s="7"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S422" s="7"/>
       <c r="T422" s="7"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S423" s="7"/>
       <c r="T423" s="7"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S424" s="7"/>
       <c r="T424" s="7"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S425" s="7"/>
       <c r="T425" s="7"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S426" s="7"/>
       <c r="T426" s="7"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S427" s="7"/>
       <c r="T427" s="7"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S428" s="7"/>
       <c r="T428" s="7"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S429" s="7"/>
       <c r="T429" s="7"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S430" s="7"/>
       <c r="T430" s="7"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S431" s="7"/>
       <c r="T431" s="7"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S432" s="7"/>
       <c r="T432" s="7"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S433" s="7"/>
       <c r="T433" s="7"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S434" s="7"/>
       <c r="T434" s="7"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S435" s="7"/>
       <c r="T435" s="7"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S436" s="7"/>
       <c r="T436" s="7"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S437" s="7"/>
       <c r="T437" s="7"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S438" s="7"/>
       <c r="T438" s="7"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S439" s="7"/>
       <c r="T439" s="7"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S440" s="7"/>
       <c r="T440" s="7"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S441" s="7"/>
       <c r="T441" s="7"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S442" s="7"/>
       <c r="T442" s="7"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S443" s="7"/>
       <c r="T443" s="7"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S444" s="7"/>
       <c r="T444" s="7"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S445" s="7"/>
       <c r="T445" s="7"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S446" s="7"/>
       <c r="T446" s="7"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S447" s="7"/>
       <c r="T447" s="7"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S448" s="7"/>
       <c r="T448" s="7"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S449" s="7"/>
       <c r="T449" s="7"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S450" s="7"/>
       <c r="T450" s="7"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S451" s="7"/>
       <c r="T451" s="7"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S452" s="7"/>
       <c r="T452" s="7"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S453" s="7"/>
       <c r="T453" s="7"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S454" s="7"/>
       <c r="T454" s="7"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S455" s="7"/>
       <c r="T455" s="7"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S456" s="7"/>
       <c r="T456" s="7"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S457" s="7"/>
       <c r="T457" s="7"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S458" s="7"/>
       <c r="T458" s="7"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S459" s="7"/>
       <c r="T459" s="7"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S460" s="7"/>
       <c r="T460" s="7"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S461" s="7"/>
       <c r="T461" s="7"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S462" s="7"/>
       <c r="T462" s="7"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S463" s="7"/>
       <c r="T463" s="7"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S464" s="7"/>
       <c r="T464" s="7"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S465" s="7"/>
       <c r="T465" s="7"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S466" s="7"/>
       <c r="T466" s="7"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S467" s="7"/>
       <c r="T467" s="7"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S468" s="7"/>
       <c r="T468" s="7"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S469" s="7"/>
       <c r="T469" s="7"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S470" s="7"/>
       <c r="T470" s="7"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S471" s="7"/>
       <c r="T471" s="7"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S472" s="7"/>
       <c r="T472" s="7"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S473" s="7"/>
       <c r="T473" s="7"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S474" s="7"/>
       <c r="T474" s="7"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S475" s="7"/>
       <c r="T475" s="7"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S476" s="7"/>
       <c r="T476" s="7"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S477" s="7"/>
       <c r="T477" s="7"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S478" s="7"/>
       <c r="T478" s="7"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S479" s="7"/>
       <c r="T479" s="7"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S480" s="7"/>
       <c r="T480" s="7"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S481" s="7"/>
       <c r="T481" s="7"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S482" s="7"/>
       <c r="T482" s="7"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S483" s="7"/>
       <c r="T483" s="7"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S484" s="7"/>
       <c r="T484" s="7"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S485" s="7"/>
       <c r="T485" s="7"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S486" s="7"/>
       <c r="T486" s="7"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S487" s="7"/>
       <c r="T487" s="7"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S488" s="7"/>
       <c r="T488" s="7"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S489" s="7"/>
       <c r="T489" s="7"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S490" s="7"/>
       <c r="T490" s="7"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S491" s="7"/>
       <c r="T491" s="7"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S492" s="7"/>
       <c r="T492" s="7"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S493" s="7"/>
       <c r="T493" s="7"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S494" s="7"/>
       <c r="T494" s="7"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S495" s="7"/>
       <c r="T495" s="7"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S496" s="7"/>
       <c r="T496" s="7"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S497" s="7"/>
       <c r="T497" s="7"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S498" s="7"/>
       <c r="T498" s="7"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S499" s="7"/>
       <c r="T499" s="7"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S500" s="7"/>
       <c r="T500" s="7"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S501" s="7"/>
       <c r="T501" s="7"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S502" s="7"/>
       <c r="T502" s="7"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S503" s="7"/>
       <c r="T503" s="7"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S504" s="7"/>
       <c r="T504" s="7"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S505" s="7"/>
       <c r="T505" s="7"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S506" s="7"/>
       <c r="T506" s="7"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S507" s="7"/>
       <c r="T507" s="7"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S508" s="7"/>
       <c r="T508" s="7"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S509" s="7"/>
       <c r="T509" s="7"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S510" s="7"/>
       <c r="T510" s="7"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S511" s="7"/>
       <c r="T511" s="7"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S512" s="7"/>
       <c r="T512" s="7"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S513" s="7"/>
       <c r="T513" s="7"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S514" s="7"/>
       <c r="T514" s="7"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S515" s="7"/>
       <c r="T515" s="7"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S516" s="7"/>
       <c r="T516" s="7"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S517" s="7"/>
       <c r="T517" s="7"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S518" s="7"/>
       <c r="T518" s="7"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S519" s="7"/>
       <c r="T519" s="7"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S520" s="7"/>
       <c r="T520" s="7"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S521" s="7"/>
       <c r="T521" s="7"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S522" s="7"/>
       <c r="T522" s="7"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S523" s="7"/>
       <c r="T523" s="7"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S524" s="7"/>
       <c r="T524" s="7"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S525" s="7"/>
       <c r="T525" s="7"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S526" s="7"/>
       <c r="T526" s="7"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S527" s="7"/>
       <c r="T527" s="7"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S528" s="7"/>
       <c r="T528" s="7"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S529" s="7"/>
       <c r="T529" s="7"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S530" s="7"/>
       <c r="T530" s="7"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S531" s="7"/>
       <c r="T531" s="7"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S532" s="7"/>
       <c r="T532" s="7"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S533" s="7"/>
       <c r="T533" s="7"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S534" s="7"/>
       <c r="T534" s="7"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S535" s="7"/>
       <c r="T535" s="7"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S536" s="7"/>
       <c r="T536" s="7"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S537" s="7"/>
       <c r="T537" s="7"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S538" s="7"/>
       <c r="T538" s="7"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S539" s="7"/>
       <c r="T539" s="7"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S540" s="7"/>
       <c r="T540" s="7"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S541" s="7"/>
       <c r="T541" s="7"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S542" s="7"/>
       <c r="T542" s="7"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S543" s="7"/>
       <c r="T543" s="7"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S544" s="7"/>
       <c r="T544" s="7"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S545" s="7"/>
       <c r="T545" s="7"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S546" s="7"/>
       <c r="T546" s="7"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S547" s="7"/>
       <c r="T547" s="7"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S548" s="7"/>
       <c r="T548" s="7"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S549" s="7"/>
       <c r="T549" s="7"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S550" s="7"/>
       <c r="T550" s="7"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S551" s="7"/>
       <c r="T551" s="7"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S552" s="7"/>
       <c r="T552" s="7"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S553" s="7"/>
       <c r="T553" s="7"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S554" s="7"/>
       <c r="T554" s="7"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S555" s="7"/>
       <c r="T555" s="7"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S556" s="7"/>
       <c r="T556" s="7"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S557" s="7"/>
       <c r="T557" s="7"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S558" s="7"/>
       <c r="T558" s="7"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S559" s="7"/>
       <c r="T559" s="7"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S560" s="7"/>
       <c r="T560" s="7"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S561" s="7"/>
       <c r="T561" s="7"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S562" s="7"/>
       <c r="T562" s="7"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S563" s="7"/>
       <c r="T563" s="7"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S564" s="7"/>
       <c r="T564" s="7"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S565" s="7"/>
       <c r="T565" s="7"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S566" s="7"/>
       <c r="T566" s="7"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S567" s="7"/>
       <c r="T567" s="7"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S568" s="7"/>
       <c r="T568" s="7"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S569" s="7"/>
       <c r="T569" s="7"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S570" s="7"/>
       <c r="T570" s="7"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S571" s="7"/>
       <c r="T571" s="7"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S572" s="7"/>
       <c r="T572" s="7"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S573" s="7"/>
       <c r="T573" s="7"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S574" s="7"/>
       <c r="T574" s="7"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S575" s="7"/>
       <c r="T575" s="7"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S576" s="7"/>
       <c r="T576" s="7"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S577" s="7"/>
       <c r="T577" s="7"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S578" s="7"/>
       <c r="T578" s="7"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S579" s="7"/>
       <c r="T579" s="7"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S580" s="7"/>
       <c r="T580" s="7"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S581" s="7"/>
       <c r="T581" s="7"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S582" s="7"/>
       <c r="T582" s="7"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S583" s="7"/>
       <c r="T583" s="7"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S584" s="7"/>
       <c r="T584" s="7"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S585" s="7"/>
       <c r="T585" s="7"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S586" s="7"/>
       <c r="T586" s="7"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S587" s="7"/>
       <c r="T587" s="7"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S588" s="7"/>
       <c r="T588" s="7"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S589" s="7"/>
       <c r="T589" s="7"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S590" s="7"/>
       <c r="T590" s="7"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S591" s="7"/>
       <c r="T591" s="7"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S592" s="7"/>
       <c r="T592" s="7"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S593" s="7"/>
       <c r="T593" s="7"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S594" s="7"/>
       <c r="T594" s="7"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S595" s="7"/>
       <c r="T595" s="7"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S596" s="7"/>
       <c r="T596" s="7"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S597" s="7"/>
       <c r="T597" s="7"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S598" s="7"/>
       <c r="T598" s="7"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S599" s="7"/>
       <c r="T599" s="7"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S600" s="7"/>
       <c r="T600" s="7"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S601" s="7"/>
       <c r="T601" s="7"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S602" s="7"/>
       <c r="T602" s="7"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S603" s="7"/>
       <c r="T603" s="7"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S604" s="7"/>
       <c r="T604" s="7"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S605" s="7"/>
       <c r="T605" s="7"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S606" s="7"/>
       <c r="T606" s="7"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S607" s="7"/>
       <c r="T607" s="7"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S608" s="7"/>
       <c r="T608" s="7"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S609" s="7"/>
       <c r="T609" s="7"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S610" s="7"/>
       <c r="T610" s="7"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S611" s="7"/>
       <c r="T611" s="7"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S612" s="7"/>
       <c r="T612" s="7"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S613" s="7"/>
       <c r="T613" s="7"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S614" s="7"/>
       <c r="T614" s="7"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S615" s="7"/>
       <c r="T615" s="7"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S616" s="7"/>
       <c r="T616" s="7"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S617" s="7"/>
       <c r="T617" s="7"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S618" s="7"/>
       <c r="T618" s="7"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S619" s="7"/>
       <c r="T619" s="7"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S620" s="7"/>
       <c r="T620" s="7"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S621" s="7"/>
       <c r="T621" s="7"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S622" s="7"/>
       <c r="T622" s="7"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S623" s="7"/>
       <c r="T623" s="7"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S624" s="7"/>
       <c r="T624" s="7"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S625" s="7"/>
       <c r="T625" s="7"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S626" s="7"/>
       <c r="T626" s="7"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S627" s="7"/>
       <c r="T627" s="7"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S628" s="7"/>
       <c r="T628" s="7"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S629" s="7"/>
       <c r="T629" s="7"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S630" s="7"/>
       <c r="T630" s="7"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S631" s="7"/>
       <c r="T631" s="7"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S632" s="7"/>
       <c r="T632" s="7"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S633" s="7"/>
       <c r="T633" s="7"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S634" s="7"/>
       <c r="T634" s="7"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S635" s="7"/>
       <c r="T635" s="7"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S636" s="7"/>
       <c r="T636" s="7"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S637" s="7"/>
       <c r="T637" s="7"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S638" s="7"/>
       <c r="T638" s="7"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S639" s="7"/>
       <c r="T639" s="7"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S640" s="7"/>
       <c r="T640" s="7"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S641" s="7"/>
       <c r="T641" s="7"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S642" s="7"/>
       <c r="T642" s="7"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S643" s="7"/>
       <c r="T643" s="7"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S644" s="7"/>
       <c r="T644" s="7"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S645" s="7"/>
       <c r="T645" s="7"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S646" s="7"/>
       <c r="T646" s="7"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S647" s="7"/>
       <c r="T647" s="7"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S648" s="7"/>
       <c r="T648" s="7"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S649" s="7"/>
       <c r="T649" s="7"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S650" s="7"/>
       <c r="T650" s="7"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S651" s="7"/>
       <c r="T651" s="7"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S652" s="7"/>
       <c r="T652" s="7"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S653" s="7"/>
       <c r="T653" s="7"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S654" s="7"/>
       <c r="T654" s="7"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S655" s="7"/>
       <c r="T655" s="7"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S656" s="7"/>
       <c r="T656" s="7"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S657" s="7"/>
       <c r="T657" s="7"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S658" s="7"/>
       <c r="T658" s="7"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S659" s="7"/>
       <c r="T659" s="7"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S660" s="7"/>
       <c r="T660" s="7"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S661" s="7"/>
       <c r="T661" s="7"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S662" s="7"/>
       <c r="T662" s="7"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S663" s="7"/>
       <c r="T663" s="7"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S664" s="7"/>
       <c r="T664" s="7"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S665" s="7"/>
       <c r="T665" s="7"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S666" s="7"/>
       <c r="T666" s="7"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S667" s="7"/>
       <c r="T667" s="7"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S668" s="7"/>
       <c r="T668" s="7"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S669" s="7"/>
       <c r="T669" s="7"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S670" s="7"/>
       <c r="T670" s="7"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S671" s="7"/>
       <c r="T671" s="7"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S672" s="7"/>
       <c r="T672" s="7"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S673" s="7"/>
       <c r="T673" s="7"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S674" s="7"/>
       <c r="T674" s="7"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S675" s="7"/>
       <c r="T675" s="7"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S676" s="7"/>
       <c r="T676" s="7"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S677" s="7"/>
       <c r="T677" s="7"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S678" s="7"/>
       <c r="T678" s="7"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S679" s="7"/>
       <c r="T679" s="7"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S680" s="7"/>
       <c r="T680" s="7"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S681" s="7"/>
       <c r="T681" s="7"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S682" s="7"/>
       <c r="T682" s="7"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S683" s="7"/>
       <c r="T683" s="7"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S684" s="7"/>
       <c r="T684" s="7"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S685" s="7"/>
       <c r="T685" s="7"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S686" s="7"/>
       <c r="T686" s="7"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S687" s="7"/>
       <c r="T687" s="7"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S688" s="7"/>
       <c r="T688" s="7"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S689" s="7"/>
       <c r="T689" s="7"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S690" s="7"/>
       <c r="T690" s="7"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S691" s="7"/>
       <c r="T691" s="7"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S692" s="7"/>
       <c r="T692" s="7"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S693" s="7"/>
       <c r="T693" s="7"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S694" s="7"/>
       <c r="T694" s="7"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S695" s="7"/>
       <c r="T695" s="7"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S696" s="7"/>
       <c r="T696" s="7"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S697" s="7"/>
       <c r="T697" s="7"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S698" s="7"/>
       <c r="T698" s="7"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S699" s="7"/>
       <c r="T699" s="7"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S700" s="7"/>
       <c r="T700" s="7"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S701" s="7"/>
       <c r="T701" s="7"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S702" s="7"/>
       <c r="T702" s="7"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S703" s="7"/>
       <c r="T703" s="7"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S704" s="7"/>
       <c r="T704" s="7"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S705" s="7"/>
       <c r="T705" s="7"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S706" s="7"/>
       <c r="T706" s="7"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S707" s="7"/>
       <c r="T707" s="7"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S708" s="7"/>
       <c r="T708" s="7"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S709" s="7"/>
       <c r="T709" s="7"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S710" s="7"/>
       <c r="T710" s="7"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S711" s="7"/>
       <c r="T711" s="7"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S712" s="7"/>
       <c r="T712" s="7"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S713" s="7"/>
       <c r="T713" s="7"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S714" s="7"/>
       <c r="T714" s="7"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S715" s="7"/>
       <c r="T715" s="7"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S716" s="7"/>
       <c r="T716" s="7"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S717" s="7"/>
       <c r="T717" s="7"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S718" s="7"/>
       <c r="T718" s="7"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S719" s="7"/>
       <c r="T719" s="7"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S720" s="7"/>
       <c r="T720" s="7"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S721" s="7"/>
       <c r="T721" s="7"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S722" s="7"/>
       <c r="T722" s="7"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S723" s="7"/>
       <c r="T723" s="7"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S724" s="7"/>
       <c r="T724" s="7"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S725" s="7"/>
       <c r="T725" s="7"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S726" s="7"/>
       <c r="T726" s="7"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S727" s="7"/>
       <c r="T727" s="7"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S728" s="7"/>
       <c r="T728" s="7"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S729" s="7"/>
       <c r="T729" s="7"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S730" s="7"/>
       <c r="T730" s="7"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S731" s="7"/>
       <c r="T731" s="7"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S732" s="7"/>
       <c r="T732" s="7"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S733" s="7"/>
       <c r="T733" s="7"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S734" s="7"/>
       <c r="T734" s="7"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S735" s="7"/>
       <c r="T735" s="7"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S736" s="7"/>
       <c r="T736" s="7"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S737" s="7"/>
       <c r="T737" s="7"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S738" s="7"/>
       <c r="T738" s="7"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S739" s="7"/>
       <c r="T739" s="7"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S740" s="7"/>
       <c r="T740" s="7"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S741" s="7"/>
       <c r="T741" s="7"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S742" s="7"/>
       <c r="T742" s="7"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S743" s="7"/>
       <c r="T743" s="7"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S744" s="7"/>
       <c r="T744" s="7"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S745" s="7"/>
       <c r="T745" s="7"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S746" s="7"/>
       <c r="T746" s="7"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S747" s="7"/>
       <c r="T747" s="7"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S748" s="7"/>
       <c r="T748" s="7"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S749" s="7"/>
       <c r="T749" s="7"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S750" s="7"/>
       <c r="T750" s="7"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S751" s="7"/>
       <c r="T751" s="7"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S752" s="7"/>
       <c r="T752" s="7"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S753" s="7"/>
       <c r="T753" s="7"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S754" s="7"/>
       <c r="T754" s="7"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S755" s="7"/>
       <c r="T755" s="7"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S756" s="7"/>
       <c r="T756" s="7"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S757" s="7"/>
       <c r="T757" s="7"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S758" s="7"/>
       <c r="T758" s="7"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S759" s="7"/>
       <c r="T759" s="7"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S760" s="7"/>
       <c r="T760" s="7"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S761" s="7"/>
       <c r="T761" s="7"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S762" s="7"/>
       <c r="T762" s="7"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S763" s="7"/>
       <c r="T763" s="7"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S764" s="7"/>
       <c r="T764" s="7"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S765" s="7"/>
       <c r="T765" s="7"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S766" s="7"/>
       <c r="T766" s="7"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S767" s="7"/>
       <c r="T767" s="7"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S768" s="7"/>
       <c r="T768" s="7"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S769" s="7"/>
       <c r="T769" s="7"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S770" s="7"/>
       <c r="T770" s="7"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S771" s="7"/>
       <c r="T771" s="7"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S772" s="7"/>
       <c r="T772" s="7"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S773" s="7"/>
       <c r="T773" s="7"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S774" s="7"/>
       <c r="T774" s="7"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S775" s="7"/>
       <c r="T775" s="7"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S776" s="7"/>
       <c r="T776" s="7"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S777" s="7"/>
       <c r="T777" s="7"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S778" s="7"/>
       <c r="T778" s="7"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S779" s="7"/>
       <c r="T779" s="7"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S780" s="7"/>
       <c r="T780" s="7"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S781" s="7"/>
       <c r="T781" s="7"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S782" s="7"/>
       <c r="T782" s="7"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S783" s="7"/>
       <c r="T783" s="7"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S784" s="7"/>
       <c r="T784" s="7"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S785" s="7"/>
       <c r="T785" s="7"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S786" s="7"/>
       <c r="T786" s="7"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S787" s="7"/>
       <c r="T787" s="7"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S788" s="7"/>
       <c r="T788" s="7"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S789" s="7"/>
       <c r="T789" s="7"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S790" s="7"/>
       <c r="T790" s="7"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S791" s="7"/>
       <c r="T791" s="7"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S792" s="7"/>
       <c r="T792" s="7"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S793" s="7"/>
       <c r="T793" s="7"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S794" s="7"/>
       <c r="T794" s="7"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S795" s="7"/>
       <c r="T795" s="7"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S796" s="7"/>
       <c r="T796" s="7"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S797" s="7"/>
       <c r="T797" s="7"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S798" s="7"/>
       <c r="T798" s="7"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S799" s="7"/>
       <c r="T799" s="7"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S800" s="7"/>
       <c r="T800" s="7"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S801" s="7"/>
       <c r="T801" s="7"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S802" s="7"/>
       <c r="T802" s="7"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S803" s="7"/>
       <c r="T803" s="7"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S804" s="7"/>
       <c r="T804" s="7"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S805" s="7"/>
       <c r="T805" s="7"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S806" s="7"/>
       <c r="T806" s="7"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S807" s="7"/>
       <c r="T807" s="7"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S808" s="7"/>
       <c r="T808" s="7"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S809" s="7"/>
       <c r="T809" s="7"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S810" s="7"/>
       <c r="T810" s="7"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S811" s="7"/>
       <c r="T811" s="7"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S812" s="7"/>
       <c r="T812" s="7"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S813" s="7"/>
       <c r="T813" s="7"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S814" s="7"/>
       <c r="T814" s="7"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S815" s="7"/>
       <c r="T815" s="7"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S816" s="7"/>
       <c r="T816" s="7"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S817" s="7"/>
       <c r="T817" s="7"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S818" s="7"/>
       <c r="T818" s="7"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S819" s="7"/>
       <c r="T819" s="7"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S820" s="7"/>
       <c r="T820" s="7"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S821" s="7"/>
       <c r="T821" s="7"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S822" s="7"/>
       <c r="T822" s="7"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S823" s="7"/>
       <c r="T823" s="7"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S824" s="7"/>
       <c r="T824" s="7"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S825" s="7"/>
       <c r="T825" s="7"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S826" s="7"/>
       <c r="T826" s="7"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S827" s="7"/>
       <c r="T827" s="7"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S828" s="7"/>
       <c r="T828" s="7"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S829" s="7"/>
       <c r="T829" s="7"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S830" s="7"/>
       <c r="T830" s="7"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S831" s="7"/>
       <c r="T831" s="7"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S832" s="7"/>
       <c r="T832" s="7"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S833" s="7"/>
       <c r="T833" s="7"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S834" s="7"/>
       <c r="T834" s="7"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S835" s="7"/>
       <c r="T835" s="7"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S836" s="7"/>
       <c r="T836" s="7"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S837" s="7"/>
       <c r="T837" s="7"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S838" s="7"/>
       <c r="T838" s="7"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S839" s="7"/>
       <c r="T839" s="7"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S840" s="7"/>
       <c r="T840" s="7"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S841" s="7"/>
       <c r="T841" s="7"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S842" s="7"/>
       <c r="T842" s="7"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S843" s="7"/>
       <c r="T843" s="7"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S844" s="7"/>
       <c r="T844" s="7"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S845" s="7"/>
       <c r="T845" s="7"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S846" s="7"/>
       <c r="T846" s="7"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S847" s="7"/>
       <c r="T847" s="7"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S848" s="7"/>
       <c r="T848" s="7"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S849" s="7"/>
       <c r="T849" s="7"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S850" s="7"/>
       <c r="T850" s="7"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S851" s="7"/>
       <c r="T851" s="7"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S852" s="7"/>
       <c r="T852" s="7"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S853" s="7"/>
       <c r="T853" s="7"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S854" s="7"/>
       <c r="T854" s="7"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S855" s="7"/>
       <c r="T855" s="7"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S856" s="7"/>
       <c r="T856" s="7"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S857" s="7"/>
       <c r="T857" s="7"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S858" s="7"/>
       <c r="T858" s="7"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S859" s="7"/>
       <c r="T859" s="7"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S860" s="7"/>
       <c r="T860" s="7"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S861" s="7"/>
       <c r="T861" s="7"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S862" s="7"/>
       <c r="T862" s="7"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S863" s="7"/>
       <c r="T863" s="7"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S864" s="7"/>
       <c r="T864" s="7"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S865" s="7"/>
       <c r="T865" s="7"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S866" s="7"/>
       <c r="T866" s="7"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S867" s="7"/>
       <c r="T867" s="7"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S868" s="7"/>
       <c r="T868" s="7"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S869" s="7"/>
       <c r="T869" s="7"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S870" s="7"/>
       <c r="T870" s="7"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S871" s="7"/>
       <c r="T871" s="7"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S872" s="7"/>
       <c r="T872" s="7"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S873" s="7"/>
       <c r="T873" s="7"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S874" s="7"/>
       <c r="T874" s="7"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S875" s="7"/>
       <c r="T875" s="7"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S876" s="7"/>
       <c r="T876" s="7"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S877" s="7"/>
       <c r="T877" s="7"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S878" s="7"/>
       <c r="T878" s="7"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S879" s="7"/>
       <c r="T879" s="7"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S880" s="7"/>
       <c r="T880" s="7"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S881" s="7"/>
       <c r="T881" s="7"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S882" s="7"/>
       <c r="T882" s="7"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S883" s="7"/>
       <c r="T883" s="7"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S884" s="7"/>
       <c r="T884" s="7"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S885" s="7"/>
       <c r="T885" s="7"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S886" s="7"/>
       <c r="T886" s="7"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S887" s="7"/>
       <c r="T887" s="7"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S888" s="7"/>
       <c r="T888" s="7"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S889" s="7"/>
       <c r="T889" s="7"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S890" s="7"/>
       <c r="T890" s="7"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S891" s="7"/>
       <c r="T891" s="7"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S892" s="7"/>
       <c r="T892" s="7"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S893" s="7"/>
       <c r="T893" s="7"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S894" s="7"/>
       <c r="T894" s="7"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S895" s="7"/>
       <c r="T895" s="7"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S896" s="7"/>
       <c r="T896" s="7"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S897" s="7"/>
       <c r="T897" s="7"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S898" s="7"/>
       <c r="T898" s="7"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S899" s="7"/>
       <c r="T899" s="7"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S900" s="7"/>
       <c r="T900" s="7"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S901" s="7"/>
       <c r="T901" s="7"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S902" s="7"/>
       <c r="T902" s="7"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S903" s="7"/>
       <c r="T903" s="7"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S904" s="7"/>
       <c r="T904" s="7"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S905" s="7"/>
       <c r="T905" s="7"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S906" s="7"/>
       <c r="T906" s="7"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S907" s="7"/>
       <c r="T907" s="7"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S908" s="7"/>
       <c r="T908" s="7"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S909" s="7"/>
       <c r="T909" s="7"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S910" s="7"/>
       <c r="T910" s="7"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S911" s="7"/>
       <c r="T911" s="7"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S912" s="7"/>
       <c r="T912" s="7"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S913" s="7"/>
       <c r="T913" s="7"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S914" s="7"/>
       <c r="T914" s="7"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S915" s="7"/>
       <c r="T915" s="7"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S916" s="7"/>
       <c r="T916" s="7"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S917" s="7"/>
       <c r="T917" s="7"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S918" s="7"/>
       <c r="T918" s="7"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S919" s="7"/>
       <c r="T919" s="7"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S920" s="7"/>
       <c r="T920" s="7"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S921" s="7"/>
       <c r="T921" s="7"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S922" s="7"/>
       <c r="T922" s="7"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S923" s="7"/>
       <c r="T923" s="7"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S924" s="7"/>
       <c r="T924" s="7"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S925" s="7"/>
       <c r="T925" s="7"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S926" s="7"/>
       <c r="T926" s="7"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S927" s="7"/>
       <c r="T927" s="7"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S928" s="7"/>
       <c r="T928" s="7"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S929" s="7"/>
       <c r="T929" s="7"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S930" s="7"/>
       <c r="T930" s="7"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S931" s="7"/>
       <c r="T931" s="7"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S932" s="7"/>
       <c r="T932" s="7"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S933" s="7"/>
       <c r="T933" s="7"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S934" s="7"/>
       <c r="T934" s="7"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S935" s="7"/>
       <c r="T935" s="7"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S936" s="7"/>
       <c r="T936" s="7"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S937" s="7"/>
       <c r="T937" s="7"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S938" s="7"/>
       <c r="T938" s="7"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S939" s="7"/>
       <c r="T939" s="7"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S940" s="7"/>
       <c r="T940" s="7"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S941" s="7"/>
       <c r="T941" s="7"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S942" s="7"/>
       <c r="T942" s="7"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S943" s="7"/>
       <c r="T943" s="7"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S944" s="7"/>
       <c r="T944" s="7"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S945" s="7"/>
       <c r="T945" s="7"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S946" s="7"/>
       <c r="T946" s="7"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S947" s="7"/>
       <c r="T947" s="7"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S948" s="7"/>
       <c r="T948" s="7"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S949" s="7"/>
       <c r="T949" s="7"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S950" s="7"/>
       <c r="T950" s="7"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S951" s="7"/>
       <c r="T951" s="7"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S952" s="7"/>
       <c r="T952" s="7"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S953" s="7"/>
       <c r="T953" s="7"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S954" s="7"/>
       <c r="T954" s="7"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S955" s="7"/>
       <c r="T955" s="7"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S956" s="7"/>
       <c r="T956" s="7"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S957" s="7"/>
       <c r="T957" s="7"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S958" s="7"/>
       <c r="T958" s="7"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S959" s="7"/>
       <c r="T959" s="7"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S960" s="7"/>
       <c r="T960" s="7"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S961" s="7"/>
       <c r="T961" s="7"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S962" s="7"/>
       <c r="T962" s="7"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S963" s="7"/>
       <c r="T963" s="7"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S964" s="7"/>
       <c r="T964" s="7"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S965" s="7"/>
       <c r="T965" s="7"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S966" s="7"/>
       <c r="T966" s="7"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S967" s="7"/>
       <c r="T967" s="7"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S968" s="7"/>
       <c r="T968" s="7"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S969" s="7"/>
       <c r="T969" s="7"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S970" s="7"/>
       <c r="T970" s="7"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S971" s="7"/>
       <c r="T971" s="7"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S972" s="7"/>
       <c r="T972" s="7"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S973" s="7"/>
       <c r="T973" s="7"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S974" s="7"/>
       <c r="T974" s="7"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S975" s="7"/>
       <c r="T975" s="7"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S976" s="7"/>
       <c r="T976" s="7"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S977" s="7"/>
       <c r="T977" s="7"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S978" s="7"/>
       <c r="T978" s="7"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S979" s="7"/>
       <c r="T979" s="7"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S980" s="7"/>
       <c r="T980" s="7"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S981" s="7"/>
       <c r="T981" s="7"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S982" s="7"/>
       <c r="T982" s="7"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S983" s="7"/>
       <c r="T983" s="7"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S984" s="7"/>
       <c r="T984" s="7"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S985" s="7"/>
       <c r="T985" s="7"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S986" s="7"/>
       <c r="T986" s="7"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S987" s="7"/>
       <c r="T987" s="7"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S988" s="7"/>
       <c r="T988" s="7"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S989" s="7"/>
       <c r="T989" s="7"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S990" s="7"/>
       <c r="T990" s="7"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S991" s="7"/>
       <c r="T991" s="7"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S992" s="7"/>
       <c r="T992" s="7"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S993" s="7"/>
       <c r="T993" s="7"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S994" s="7"/>
       <c r="T994" s="7"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S995" s="7"/>
       <c r="T995" s="7"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S996" s="7"/>
       <c r="T996" s="7"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
+    <row r="997" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S997" s="7"/>
       <c r="T997" s="7"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
+    <row r="998" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S998" s="7"/>
       <c r="T998" s="7"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
+    <row r="999" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S999" s="7"/>
       <c r="T999" s="7"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1">
+    <row r="1000" spans="19:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S1000" s="7"/>
       <c r="T1000" s="7"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>